--- a/TH22_RequirementOutline.xlsx
+++ b/TH22_RequirementOutline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\AA-Learning\Quy trình phát triển phần mềm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\AA-Learning\Quy trình phát triển phần mềm\KHH-CNPM-TH22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DAC23D-95B2-4615-8576-439AB7C9625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BE55B6-E605-4AF7-A4AA-F807844670E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Requirement Outline</t>
   </si>
@@ -250,15 +250,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>+ Lập báo cáo hàng tháng</t>
-  </si>
-  <si>
-    <t>Thống kê doanh thu</t>
-  </si>
-  <si>
-    <t>Thống kê thu/chi</t>
-  </si>
-  <si>
     <t>+ Quản lý nhân viên:</t>
   </si>
   <si>
@@ -310,9 +301,6 @@
     <t>Đăng nhập, quản lý nhân viên</t>
   </si>
   <si>
-    <t>Lập phiếu thu/chi,lập báo cáo</t>
-  </si>
-  <si>
     <t>Lập phiếu xuất/nhập hàng</t>
   </si>
   <si>
@@ -323,6 +311,9 @@
   </si>
   <si>
     <t>+ Cập nhập nhật tài khoản cá nhân: sửa tên đăng nhập, mật khẩu.</t>
+  </si>
+  <si>
+    <t>Lập phiếu thu/chi</t>
   </si>
 </sst>
 </file>
@@ -803,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,29 +986,22 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
-      <c r="D37" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="38" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>50</v>
+      <c r="C38" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C40" s="4"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
@@ -1027,24 +1011,24 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" s="6"/>
       <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="D46" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -1052,62 +1036,62 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
       <c r="D50" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C56" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="D57" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58" s="4"/>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" s="4"/>
       <c r="D59" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -1141,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1204,7 @@
     </row>
     <row r="12" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
@@ -1237,7 +1221,7 @@
     </row>
     <row r="13" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
@@ -1254,7 +1238,7 @@
     </row>
     <row r="14" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>11</v>
@@ -1271,7 +1255,7 @@
     </row>
     <row r="15" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
@@ -1288,7 +1272,7 @@
     </row>
     <row r="16" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>13</v>
